--- a/biology/Zoologie/Faune_des_îles_Galápagos/Faune_des_îles_Galápagos.xlsx
+++ b/biology/Zoologie/Faune_des_îles_Galápagos/Faune_des_îles_Galápagos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faune_des_%C3%AEles_Gal%C3%A1pagos</t>
+          <t>Faune_des_îles_Galápagos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le Parc national des Galápagos, la biodiversité est en grande partie originaire d'Amérique du Sud d'où provient la plupart des espèces-souches, mais l'isolement insulaire a fait que chaque île de l'archipel a développé sa propre faune endémique. C'est en cherchant l'explication de ce fait que Charles Darwin, qui visita ces îles en 1835, découvrit plus tard, en Angleterre et en interrogeant les éleveurs d'animaux domestiques sur leurs méthodes de sélection et de croisement, les phénomènes de la sélection naturelle et de l'évolution[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le Parc national des Galápagos, la biodiversité est en grande partie originaire d'Amérique du Sud d'où provient la plupart des espèces-souches, mais l'isolement insulaire a fait que chaque île de l'archipel a développé sa propre faune endémique. C'est en cherchant l'explication de ce fait que Charles Darwin, qui visita ces îles en 1835, découvrit plus tard, en Angleterre et en interrogeant les éleveurs d'animaux domestiques sur leurs méthodes de sélection et de croisement, les phénomènes de la sélection naturelle et de l'évolution.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faune_des_%C3%AEles_Gal%C3%A1pagos</t>
+          <t>Faune_des_îles_Galápagos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mammifères
-Outre l'Homme et ses commensaux tel le chien, les îles comportent des animaux introduits volontairement comme les chèvres ou involontairement comme les rats, qui ont profondément modifié la biodiversité locale, et dont l'éradication est programmée ou en cours. Les mammifères marins sont nombreux : on y trouve l'otarie des Galápagos, l'otarie à fourrure, des dauphins, des baleines (Baleine à bosse)… Il n'y avait pas de mammifères terrestres locaux à l'arrivée de l'Homme.
-Oiseaux
-On dénombre 58 espèces d'oiseaux, dont 28 sont endémiques de l'archipel : quatre espèces de moqueurs (dont le moqueur des Galapagos) et 13 espèces de pinsons de Darwin dont le Géospize des mangroves, l'Albatros des Galapagos, trois espèces de fous (Fou à pieds bleus, Fou à pieds rouges et Fou masqué), la Frégate superbe et la Frégate du Pacifique, le Cormoran aptère, la Tourterelle des Galapagos et le manchot des Galápagos, seul manchot à vivre dans un milieu chaud, arrivé (comme les otaries) par le courant de Humboldt.
-On trouve également sur l'archipel la buse des Galapagos, seul prédateur autochtone des jeunes iguanes et tortues. 
-Reptiles
-Les animaux les plus connus sont les tortues terrestres endémiques, les iguanes terrestres et les iguanes marins. On trouve également de petits iguanes Conolophus pallidus ou Conolophus rosada et le gecko Phyllodactylus galapagensis.
-Poissons
-Il n'y a pas de poissons d'eau douce, les mares et marais étant temporaires, mais l'on compte plus de 300 espèces de poissons dans la réserve marine de l'archipel. On compte 12 espèces de requins dont le requin de Galapagos, le requin gris de récif, le requin marteau, le requin tigre, le requin baleine, le requin à cornes[2]. 
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre l'Homme et ses commensaux tel le chien, les îles comportent des animaux introduits volontairement comme les chèvres ou involontairement comme les rats, qui ont profondément modifié la biodiversité locale, et dont l'éradication est programmée ou en cours. Les mammifères marins sont nombreux : on y trouve l'otarie des Galápagos, l'otarie à fourrure, des dauphins, des baleines (Baleine à bosse)… Il n'y avait pas de mammifères terrestres locaux à l'arrivée de l'Homme.
 </t>
         </is>
       </c>
@@ -532,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Faune_des_%C3%AEles_Gal%C3%A1pagos</t>
+          <t>Faune_des_îles_Galápagos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,16 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Arthropodes</t>
+          <t>Vertébrés</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'archipel des Galápagos est peuplé de près de 1 600 espèces d'insectes différentes dont 300 espèces de coléoptères, 80 espèces d'araignées, 80 espèces d'escargots de terre, 650 espèces de coquillages et mollusques, 120 espèces de crabes (dont les plus connus sont les crabes rouges des Galapagos) et bien d'autres petits animaux.
-Arachnides endémiques
-Araignées : Theotima galapagosensis, Galapa baerti, Galapa bella, Galapa floreana, Galaporella thaleri, Neocleobis solitarius, Camillina cruz, Camillina galapagoensis, Camillina isabela, Camillina isla.
-Insectes endémiques
-Papillons : Xylophanes norfolki
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On dénombre 58 espèces d'oiseaux, dont 28 sont endémiques de l'archipel : quatre espèces de moqueurs (dont le moqueur des Galapagos) et 13 espèces de pinsons de Darwin dont le Géospize des mangroves, l'Albatros des Galapagos, trois espèces de fous (Fou à pieds bleus, Fou à pieds rouges et Fou masqué), la Frégate superbe et la Frégate du Pacifique, le Cormoran aptère, la Tourterelle des Galapagos et le manchot des Galápagos, seul manchot à vivre dans un milieu chaud, arrivé (comme les otaries) par le courant de Humboldt.
+On trouve également sur l'archipel la buse des Galapagos, seul prédateur autochtone des jeunes iguanes et tortues. 
 </t>
         </is>
       </c>
@@ -567,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Faune_des_%C3%AEles_Gal%C3%A1pagos</t>
+          <t>Faune_des_îles_Galápagos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +595,193 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Vertébrés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les animaux les plus connus sont les tortues terrestres endémiques, les iguanes terrestres et les iguanes marins. On trouve également de petits iguanes Conolophus pallidus ou Conolophus rosada et le gecko Phyllodactylus galapagensis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faune_des_îles_Galápagos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_%C3%AEles_Gal%C3%A1pagos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vertébrés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas de poissons d'eau douce, les mares et marais étant temporaires, mais l'on compte plus de 300 espèces de poissons dans la réserve marine de l'archipel. On compte 12 espèces de requins dont le requin de Galapagos, le requin gris de récif, le requin marteau, le requin tigre, le requin baleine, le requin à cornes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faune_des_îles_Galápagos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_%C3%AEles_Gal%C3%A1pagos</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Arthropodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'archipel des Galápagos est peuplé de près de 1 600 espèces d'insectes différentes dont 300 espèces de coléoptères, 80 espèces d'araignées, 80 espèces d'escargots de terre, 650 espèces de coquillages et mollusques, 120 espèces de crabes (dont les plus connus sont les crabes rouges des Galapagos) et bien d'autres petits animaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faune_des_îles_Galápagos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_%C3%AEles_Gal%C3%A1pagos</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Arthropodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Arachnides endémiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Araignées : Theotima galapagosensis, Galapa baerti, Galapa bella, Galapa floreana, Galaporella thaleri, Neocleobis solitarius, Camillina cruz, Camillina galapagoensis, Camillina isabela, Camillina isla.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faune_des_îles_Galápagos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_%C3%AEles_Gal%C3%A1pagos</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Arthropodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Insectes endémiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papillons : Xylophanes norfolki
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faune_des_îles_Galápagos</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_%C3%AEles_Gal%C3%A1pagos</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Peuplement des îles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Des fragments de poteries Huancavilca provenant de la côte équatorienne ont été découvertes en 1956 par Thor Heyerdahl et Arne Skjølsvold qui les ont interprétés comme d'origine incaïque.
 Ces îles furent découvertes le 10 mars 1535 par le dominicain Tomas de Berlanga, quatrième évêque de Panama. Celui-ci s'était embarqué pour le Pérou en vue de régler une dispute entre Francisco Pizarro et ses lieutenants. Les vents s'étant arrêtés, son vaisseau se mit à dériver si bien que son équipe atteignit les îles. certaines traces trouvées en différents sites suggèrent que des Amérindiens sud-américains avaient déjà visité les îles avant leur découverte par les Espagnols.
